--- a/Dropbox/PROJETO INTEGRADOR/Cronograma Codificação.xlsx
+++ b/Dropbox/PROJETO INTEGRADOR/Cronograma Codificação.xlsx
@@ -57,9 +57,6 @@
     <t>Configuração do Hibernate e conexão com o banco</t>
   </si>
   <si>
-    <t>Teste dos métodos da classe GenericDAO</t>
-  </si>
-  <si>
     <t>Prioridade baixa - Mapa marcadores de endereço de cliente</t>
   </si>
   <si>
@@ -70,6 +67,9 @@
   </si>
   <si>
     <t xml:space="preserve">Codifição das páginas Web e codificação das classes do pacote Bean </t>
+  </si>
+  <si>
+    <t>Teste dos métodos da classe GenericDAO: lista, buscar, excluir, editar</t>
   </si>
 </sst>
 </file>
@@ -78,7 +78,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="[h]:mm"/>
+    <numFmt numFmtId="164" formatCode="[h]:mm"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -326,6 +326,44 @@
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -335,32 +373,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -370,26 +382,42 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
     <cellStyle name="Título 1" xfId="2" builtinId="16"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -687,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,284 +725,288 @@
     <col min="2" max="2" width="88.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="8">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="11">
+      <c r="B3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="8">
         <v>42455</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="15">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="8">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="11">
+      <c r="C4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="8">
         <f>D3+E3</f>
         <v>42455.020833333336</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="15">
         <v>0.5</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A5" s="8">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="11">
-        <f t="shared" ref="D5:D16" si="0">D4+E4</f>
+      <c r="C5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="8">
+        <f t="shared" ref="D5:D9" si="0">D4+E4</f>
         <v>42455.520833333336</v>
       </c>
-      <c r="E5" s="21">
-        <v>5</v>
-      </c>
-      <c r="F5" s="12">
+      <c r="E5" s="15">
+        <v>5</v>
+      </c>
+      <c r="F5" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A6" s="8">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="11">
+      <c r="C6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="8">
         <f t="shared" si="0"/>
         <v>42460.520833333336</v>
       </c>
-      <c r="E6" s="21">
-        <v>5</v>
-      </c>
-      <c r="F6" s="12">
+      <c r="E6" s="15">
+        <v>5</v>
+      </c>
+      <c r="F6" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A7" s="8">
-        <v>5</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="11">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="8">
         <f t="shared" si="0"/>
         <v>42465.520833333336</v>
       </c>
-      <c r="E7" s="21">
-        <v>5</v>
-      </c>
-      <c r="F7" s="12">
+      <c r="E7" s="15">
+        <v>5</v>
+      </c>
+      <c r="F7" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A8" s="8">
+      <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="11">
+      <c r="B8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="8">
         <f t="shared" si="0"/>
         <v>42470.520833333336</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="15">
         <v>6.25</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="9">
         <v>0.7</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A9" s="8">
+      <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="11">
+      <c r="C9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="8">
         <f t="shared" si="0"/>
         <v>42476.770833333336</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="15">
         <v>1</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="9">
         <v>0.1</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A10" s="8">
+      <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="8">
+        <v>42495</v>
+      </c>
+      <c r="E10" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="8">
+        <v>42499</v>
+      </c>
+      <c r="E11" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
+        <v>13</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A16" s="5">
+        <v>14</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="10">
         <v>15</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="11">
-        <v>42495</v>
-      </c>
-      <c r="E10" s="21">
-        <v>2.5</v>
-      </c>
-      <c r="F10" s="12"/>
-    </row>
-    <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A11" s="8">
+      <c r="B17" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="11">
-        <v>42499</v>
-      </c>
-      <c r="E11" s="21">
-        <v>2.5</v>
-      </c>
-      <c r="F11" s="12"/>
-    </row>
-    <row r="12" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A12" s="8">
-        <v>10</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="12"/>
-    </row>
-    <row r="13" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A13" s="8">
-        <v>11</v>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A14" s="8">
-        <v>12</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="12"/>
-    </row>
-    <row r="15" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A15" s="8">
-        <v>13</v>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="12"/>
-    </row>
-    <row r="16" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A16" s="8">
-        <v>14</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="12"/>
-    </row>
-    <row r="17" spans="1:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="13">
-        <v>15</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="17">
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="11">
         <f>AVERAGE(F3:F16)</f>
-        <v>0.82857142857142851</v>
+        <v>0.64444444444444438</v>
       </c>
     </row>
   </sheetData>

--- a/Dropbox/PROJETO INTEGRADOR/Cronograma Codificação.xlsx
+++ b/Dropbox/PROJETO INTEGRADOR/Cronograma Codificação.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>Item</t>
   </si>
@@ -27,9 +27,6 @@
     <t>Responsavél</t>
   </si>
   <si>
-    <t>Data de início</t>
-  </si>
-  <si>
     <t>%</t>
   </si>
   <si>
@@ -57,12 +54,6 @@
     <t>Configuração do Hibernate e conexão com o banco</t>
   </si>
   <si>
-    <t>Prioridade baixa - Mapa marcadores de endereço de cliente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prioridade baixa Desenvolver uma tela com grafico de estatísca </t>
-  </si>
-  <si>
     <t>Instalação dos software para desenvolvimento do sistema</t>
   </si>
   <si>
@@ -70,6 +61,24 @@
   </si>
   <si>
     <t>Teste dos métodos da classe GenericDAO: lista, buscar, excluir, editar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desenvolver uma tela com grafico de estatísca </t>
+  </si>
+  <si>
+    <t>Mapa marcadores de endereço de cliente</t>
+  </si>
+  <si>
+    <t>Luciana, Leticia</t>
+  </si>
+  <si>
+    <t>Atualizar Diagrama de Classe, Atividade, Caso de Uso</t>
+  </si>
+  <si>
+    <t>Data início/fim</t>
+  </si>
+  <si>
+    <t>Correção da descrição deo sistema</t>
   </si>
 </sst>
 </file>
@@ -80,7 +89,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[h]:mm"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,34 +114,13 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color rgb="FFFF0000"/>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -152,7 +140,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -252,34 +240,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -310,6 +270,19 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -324,46 +297,47 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="20" fontId="3" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -372,15 +346,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -713,309 +678,296 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="88.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.85546875" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="19"/>
-    </row>
-    <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="18"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="5">
-        <v>1</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>5</v>
       </c>
       <c r="D3" s="8">
         <v>42455</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="9">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="5">
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>8</v>
+      <c r="B4" s="10" t="s">
+        <v>7</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="8">
         <f>D3+E3</f>
         <v>42455.020833333336</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="9">
         <v>0.5</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A5" s="5">
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>12</v>
+      <c r="B5" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" s="8">
         <f t="shared" ref="D5:D9" si="0">D4+E4</f>
         <v>42455.520833333336</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="9">
         <v>5</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A6" s="5">
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>11</v>
+      <c r="B6" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="8">
         <f t="shared" si="0"/>
         <v>42460.520833333336</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="9">
         <v>5</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A7" s="5">
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>17</v>
+      <c r="B7" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" s="8">
         <f t="shared" si="0"/>
         <v>42465.520833333336</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="9">
         <v>5</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A8" s="5">
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>16</v>
+      <c r="B8" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" s="8">
         <f t="shared" si="0"/>
         <v>42470.520833333336</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="9">
         <v>6.25</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="11">
         <v>0.7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A9" s="5">
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>10</v>
+      <c r="B9" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" s="8">
         <f t="shared" si="0"/>
         <v>42476.770833333336</v>
       </c>
-      <c r="E9" s="15">
-        <v>1</v>
-      </c>
-      <c r="F9" s="9">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A10" s="5">
+      <c r="E9" s="9">
+        <v>5</v>
+      </c>
+      <c r="F9" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>14</v>
+      <c r="B10" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" s="8">
         <v>42495</v>
       </c>
-      <c r="E10" s="15">
-        <v>2.5</v>
-      </c>
-      <c r="F10" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A11" s="5">
+      <c r="E10" s="9">
+        <v>1</v>
+      </c>
+      <c r="F10" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>13</v>
+      <c r="B11" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" s="8">
         <v>42499</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="9">
         <v>2.5</v>
       </c>
-      <c r="F11" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A12" s="5">
-        <v>10</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A13" s="5">
-        <v>11</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A14" s="5">
-        <v>12</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="9"/>
-    </row>
-    <row r="15" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A15" s="5">
-        <v>13</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="9"/>
-    </row>
-    <row r="16" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A16" s="5">
+      <c r="F11" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="8">
+        <v>42500</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F12" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="1:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="10">
-        <v>15</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="11">
-        <f>AVERAGE(F3:F16)</f>
-        <v>0.64444444444444438</v>
+      <c r="B13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="8">
+        <v>42500</v>
+      </c>
+      <c r="E13" s="9">
+        <v>5</v>
+      </c>
+      <c r="F13" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="15">
+        <f>AVERAGE(F3:F13)</f>
+        <v>0.74545454545454537</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="A14:E14"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3:F17">
-    <cfRule type="dataBar" priority="1">
+  <conditionalFormatting sqref="F3:F14">
+    <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1044,7 +996,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F3:F17</xm:sqref>
+          <xm:sqref>F3:F14</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Dropbox/PROJETO INTEGRADOR/Cronograma Codificação.xlsx
+++ b/Dropbox/PROJETO INTEGRADOR/Cronograma Codificação.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>Item</t>
   </si>
@@ -78,7 +78,16 @@
     <t>Data início/fim</t>
   </si>
   <si>
-    <t>Correção da descrição deo sistema</t>
+    <t>Correção Justificativa</t>
+  </si>
+  <si>
+    <t>Correção considerações finais</t>
+  </si>
+  <si>
+    <t>Correção no resumo</t>
+  </si>
+  <si>
+    <t>Correção da descrição do sistema</t>
   </si>
 </sst>
 </file>
@@ -297,7 +306,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -326,6 +335,18 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -335,18 +356,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -678,31 +688,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66.85546875" customWidth="1"/>
+    <col min="2" max="2" width="57.85546875" customWidth="1"/>
     <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="18"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -912,8 +922,8 @@
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="10" t="s">
-        <v>20</v>
+      <c r="B12" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>17</v>
@@ -929,44 +939,98 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>14</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>18</v>
+      <c r="A13" s="2"/>
+      <c r="B13" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="8">
-        <v>42500</v>
+        <v>42501</v>
       </c>
       <c r="E13" s="9">
-        <v>5</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="F13" s="11">
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="8">
+        <v>42502</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F14" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="8">
+        <v>42503</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F15" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="8">
+        <v>42503</v>
+      </c>
+      <c r="E16" s="9">
+        <v>5</v>
+      </c>
+      <c r="F16" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="15">
-        <f>AVERAGE(F3:F13)</f>
-        <v>0.74545454545454537</v>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="12">
+        <f>AVERAGE(F3:F16)</f>
+        <v>0.69285714285714284</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A17:E17"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3:F14">
+  <conditionalFormatting sqref="F3:F17">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -996,7 +1060,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F3:F14</xm:sqref>
+          <xm:sqref>F3:F17</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Dropbox/PROJETO INTEGRADOR/Cronograma Codificação.xlsx
+++ b/Dropbox/PROJETO INTEGRADOR/Cronograma Codificação.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
@@ -11,8 +11,66 @@
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Wenes Aquino</author>
+  </authors>
+  <commentList>
+    <comment ref="B10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Wenes Aquino:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Tempo insuficiente para terminar</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Wenes Aquino:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Tempo insuficiente para terminar</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -63,21 +121,12 @@
     <t>Teste dos métodos da classe GenericDAO: lista, buscar, excluir, editar</t>
   </si>
   <si>
-    <t xml:space="preserve">Desenvolver uma tela com grafico de estatísca </t>
-  </si>
-  <si>
-    <t>Mapa marcadores de endereço de cliente</t>
-  </si>
-  <si>
     <t>Luciana, Leticia</t>
   </si>
   <si>
     <t>Atualizar Diagrama de Classe, Atividade, Caso de Uso</t>
   </si>
   <si>
-    <t>Data início/fim</t>
-  </si>
-  <si>
     <t>Correção Justificativa</t>
   </si>
   <si>
@@ -88,6 +137,35 @@
   </si>
   <si>
     <t>Correção da descrição do sistema</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Implementações futuras</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Desenvolver uma tela com grafico de estatísca </t>
+    </r>
+  </si>
+  <si>
+    <t>Implementações futuras - Mapa marcadores de endereço de cliente</t>
+  </si>
+  <si>
+    <t>Data Prevista Início/Fim</t>
   </si>
 </sst>
 </file>
@@ -98,7 +176,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[h]:mm"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +212,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -306,7 +419,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -338,6 +451,7 @@
     <xf numFmtId="9" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -356,7 +470,23 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -687,32 +817,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.85546875" customWidth="1"/>
+    <col min="2" max="2" width="69.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -725,7 +855,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>6</v>
@@ -765,8 +895,8 @@
         <v>4</v>
       </c>
       <c r="D4" s="8">
-        <f>D3+E3</f>
-        <v>42455.020833333336</v>
+        <f>D3+E3+E4</f>
+        <v>42455.520833333336</v>
       </c>
       <c r="E4" s="9">
         <v>0.5</v>
@@ -786,8 +916,8 @@
         <v>4</v>
       </c>
       <c r="D5" s="8">
-        <f t="shared" ref="D5:D9" si="0">D4+E4</f>
-        <v>42455.520833333336</v>
+        <f t="shared" ref="D5:D16" si="0">D4+E4+E5</f>
+        <v>42461.020833333336</v>
       </c>
       <c r="E5" s="9">
         <v>5</v>
@@ -808,7 +938,7 @@
       </c>
       <c r="D6" s="8">
         <f t="shared" si="0"/>
-        <v>42460.520833333336</v>
+        <v>42471.020833333336</v>
       </c>
       <c r="E6" s="9">
         <v>5</v>
@@ -829,7 +959,7 @@
       </c>
       <c r="D7" s="8">
         <f t="shared" si="0"/>
-        <v>42465.520833333336</v>
+        <v>42481.020833333336</v>
       </c>
       <c r="E7" s="9">
         <v>5</v>
@@ -850,13 +980,13 @@
       </c>
       <c r="D8" s="8">
         <f t="shared" si="0"/>
-        <v>42470.520833333336</v>
+        <v>42492.270833333336</v>
       </c>
       <c r="E8" s="9">
         <v>6.25</v>
       </c>
       <c r="F8" s="11">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -871,65 +1001,64 @@
       </c>
       <c r="D9" s="8">
         <f t="shared" si="0"/>
-        <v>42476.770833333336</v>
+        <v>42503.520833333336</v>
       </c>
       <c r="E9" s="9">
         <v>5</v>
       </c>
       <c r="F9" s="11">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="25">
         <v>8</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="8">
-        <v>42495</v>
-      </c>
-      <c r="E10" s="9">
+      <c r="D10" s="22">
+        <f t="shared" si="0"/>
+        <v>42509.520833333336</v>
+      </c>
+      <c r="E10" s="23">
         <v>1</v>
       </c>
-      <c r="F10" s="11">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="F10" s="24"/>
+    </row>
+    <row r="11" spans="1:6" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="25">
         <v>9</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="7" t="s">
+      <c r="B11" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="8">
-        <v>42499</v>
-      </c>
-      <c r="E11" s="9">
+      <c r="D11" s="22">
+        <f t="shared" si="0"/>
+        <v>42513.020833333336</v>
+      </c>
+      <c r="E11" s="23">
         <v>2.5</v>
       </c>
-      <c r="F11" s="11">
-        <v>0.5</v>
-      </c>
+      <c r="F11" s="24"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="19" t="s">
-        <v>23</v>
+      <c r="B12" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D12" s="8">
-        <v>42500</v>
+        <f t="shared" si="0"/>
+        <v>42515.854166666672</v>
       </c>
       <c r="E12" s="9">
         <v>0.33333333333333331</v>
@@ -940,14 +1069,15 @@
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="19" t="s">
-        <v>22</v>
+      <c r="B13" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D13" s="8">
-        <v>42501</v>
+        <f t="shared" si="0"/>
+        <v>42516.395833333343</v>
       </c>
       <c r="E13" s="9">
         <v>0.20833333333333334</v>
@@ -958,14 +1088,15 @@
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="19" t="s">
-        <v>20</v>
+      <c r="B14" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D14" s="8">
-        <v>42502</v>
+        <f t="shared" si="0"/>
+        <v>42516.770833333343</v>
       </c>
       <c r="E14" s="9">
         <v>0.16666666666666666</v>
@@ -976,14 +1107,15 @@
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="19" t="s">
-        <v>21</v>
+      <c r="B15" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D15" s="8">
-        <v>42503</v>
+        <f t="shared" si="0"/>
+        <v>42517.229166666672</v>
       </c>
       <c r="E15" s="9">
         <v>0.29166666666666669</v>
@@ -997,13 +1129,14 @@
         <v>14</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D16" s="8">
-        <v>42503</v>
+        <f t="shared" si="0"/>
+        <v>42522.520833333336</v>
       </c>
       <c r="E16" s="9">
         <v>5</v>
@@ -1013,16 +1146,16 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="19"/>
       <c r="F17" s="12">
         <f>AVERAGE(F3:F16)</f>
-        <v>0.69285714285714284</v>
+        <v>0.77500000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -1046,6 +1179,7 @@
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
